--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.35/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.35/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="996">
   <si>
     <t>anchor score</t>
   </si>
@@ -262,652 +262,652 @@
     <t>great</t>
   </si>
   <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>upset</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>failing</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>stripped</t>
+  </si>
+  <si>
+    <t>allegedly</t>
+  </si>
+  <si>
+    <t>disgrace</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>gel</t>
+  </si>
+  <si>
+    <t>toward</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>losses</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>dying</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>rob</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>causing</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>went</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>upset</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>failing</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>stripped</t>
-  </si>
-  <si>
-    <t>allegedly</t>
-  </si>
-  <si>
-    <t>disgrace</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>severe</t>
-  </si>
-  <si>
-    <t>gel</t>
-  </si>
-  <si>
-    <t>toward</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>clearly</t>
+    <t>love</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>losses</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>dying</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>rob</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>causing</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>trade</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>milk</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>response</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>went</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
   </si>
   <si>
     <t>heroes</t>
@@ -3367,10 +3367,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K4">
         <v>0.8976377952755905</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K6">
         <v>0.8448275862068966</v>
@@ -3649,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K7">
         <v>0.8226950354609929</v>
@@ -3699,7 +3699,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K8">
         <v>0.8076923076923077</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K9">
         <v>0.8</v>
@@ -3799,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K10">
         <v>0.7978723404255319</v>
@@ -3899,28 +3899,28 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="K12">
-        <v>0.7665198237885462</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L12">
         <v>174</v>
       </c>
       <c r="M12">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K13">
         <v>0.7222222222222222</v>
@@ -3999,7 +3999,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K14">
         <v>0.6866197183098591</v>
@@ -4049,28 +4049,28 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>111</v>
+        <v>296</v>
       </c>
       <c r="K15">
-        <v>0.6779141104294478</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L15">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4099,28 +4099,28 @@
         <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>297</v>
+        <v>111</v>
       </c>
       <c r="K16">
-        <v>0.6739130434782609</v>
+        <v>0.6567164179104478</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4149,28 +4149,28 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>113</v>
+        <v>297</v>
       </c>
       <c r="K17">
-        <v>0.6567164179104478</v>
+        <v>0.65</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="M17">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="N17">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4199,7 +4199,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K18">
         <v>0.6279069767441861</v>
@@ -4249,7 +4249,7 @@
         <v>60</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K19">
         <v>0.5964912280701754</v>
@@ -4349,7 +4349,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K21">
         <v>0.5645161290322581</v>
@@ -4449,7 +4449,7 @@
         <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K23">
         <v>0.5238095238095238</v>
@@ -4499,7 +4499,7 @@
         <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K24">
         <v>0.5</v>
@@ -4549,7 +4549,7 @@
         <v>9</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K25">
         <v>0.4727272727272727</v>
@@ -4649,7 +4649,7 @@
         <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K27">
         <v>0.4545454545454545</v>
@@ -4699,7 +4699,7 @@
         <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K28">
         <v>0.4449760765550239</v>
@@ -4749,7 +4749,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K29">
         <v>0.443064182194617</v>
@@ -4849,7 +4849,7 @@
         <v>9</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K31">
         <v>0.4375</v>
@@ -4949,7 +4949,7 @@
         <v>5</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K33">
         <v>0.4347826086956522</v>
@@ -4999,7 +4999,7 @@
         <v>13</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K34">
         <v>0.4307692307692308</v>
@@ -5099,7 +5099,7 @@
         <v>36</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K36">
         <v>0.425531914893617</v>
@@ -5299,7 +5299,7 @@
         <v>27</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K40">
         <v>0.4126984126984127</v>
@@ -5349,7 +5349,7 @@
         <v>266</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K41">
         <v>0.4105263157894737</v>
@@ -5699,7 +5699,7 @@
         <v>17</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K48">
         <v>0.3761904761904762</v>
@@ -5899,7 +5899,7 @@
         <v>4</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K52">
         <v>0.3694267515923567</v>
@@ -6049,7 +6049,7 @@
         <v>4</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K55">
         <v>0.3538083538083538</v>
@@ -6199,7 +6199,7 @@
         <v>19</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K58">
         <v>0.3518518518518519</v>
@@ -6249,7 +6249,7 @@
         <v>17</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K59">
         <v>0.35</v>
@@ -6299,7 +6299,7 @@
         <v>5</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K60">
         <v>0.3472222222222222</v>
@@ -6349,7 +6349,7 @@
         <v>5</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K61">
         <v>0.34375</v>
@@ -6449,7 +6449,7 @@
         <v>38</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K63">
         <v>0.3416149068322981</v>
@@ -6599,7 +6599,7 @@
         <v>6</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K66">
         <v>0.3333333333333333</v>
@@ -6999,7 +6999,7 @@
         <v>16</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K74">
         <v>0.328125</v>
@@ -7049,7 +7049,7 @@
         <v>4</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K75">
         <v>0.3269012485811578</v>
@@ -7099,7 +7099,7 @@
         <v>13</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K76">
         <v>0.3225806451612903</v>
@@ -7128,25 +7128,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1846153846153846</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C77">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D77">
-        <v>186</v>
+        <v>4</v>
       </c>
       <c r="E77">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>330</v>
@@ -7178,7 +7178,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1818181818181818</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -7196,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>331</v>
@@ -7228,13 +7228,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1739130434782609</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -7246,10 +7246,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K79">
         <v>0.3125</v>
@@ -7278,13 +7278,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1688311688311688</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C80">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -7296,10 +7296,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K80">
         <v>0.3116883116883117</v>
@@ -7331,10 +7331,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>332</v>
@@ -7381,10 +7381,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>333</v>
@@ -7478,13 +7478,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1666666666666667</v>
+        <v>0.1610738255033557</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -7496,10 +7496,10 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K84">
         <v>0.2957746478873239</v>
@@ -7528,13 +7528,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1610738255033557</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C85">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D85">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>335</v>
@@ -7578,13 +7578,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1578947368421053</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -7596,10 +7596,10 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K86">
         <v>0.2951739618406285</v>
@@ -7631,10 +7631,10 @@
         <v>0.1538461538461539</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>336</v>
@@ -7678,13 +7678,13 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1538461538461539</v>
+        <v>0.15</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -7696,10 +7696,10 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K88">
         <v>0.2928994082840237</v>
@@ -7728,13 +7728,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.15</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="C89">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -7746,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>337</v>
@@ -7778,13 +7778,13 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1481481481481481</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -7796,10 +7796,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K90">
         <v>0.290625</v>
@@ -8034,16 +8034,16 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
         <v>6</v>
@@ -8084,16 +8084,16 @@
         <v>1</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>6</v>
@@ -8128,25 +8128,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1428571428571428</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>344</v>
@@ -8178,25 +8178,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1379310344827586</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>345</v>
@@ -8228,13 +8228,13 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.1333333333333333</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>346</v>
@@ -8278,13 +8278,13 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.1304347826086956</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -8296,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>347</v>
@@ -8328,13 +8328,13 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1290322580645161</v>
+        <v>0.125</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -8346,10 +8346,10 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K101">
         <v>0.274822695035461</v>
@@ -8528,25 +8528,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.125</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>351</v>
@@ -8578,13 +8578,13 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.1176470588235294</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C106">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D106">
-        <v>235</v>
+        <v>47</v>
       </c>
       <c r="E106">
         <v>0.9399999999999999</v>
@@ -8596,7 +8596,7 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>352</v>
@@ -8628,25 +8628,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.1176470588235294</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D107">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="E107">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>353</v>
@@ -8678,28 +8678,28 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K108">
         <v>0.2671232876712329</v>
@@ -8728,28 +8728,28 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K109">
         <v>0.2666666666666667</v>
@@ -8781,22 +8781,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>354</v>
@@ -8828,28 +8828,28 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.1111111111111111</v>
+        <v>0.11</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>206</v>
       </c>
       <c r="E111">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F111">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K111">
         <v>0.2660550458715596</v>
@@ -8878,25 +8878,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="E112">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>355</v>
@@ -8928,25 +8928,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="C113">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D113">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="E113">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>356</v>
@@ -8978,13 +8978,13 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>357</v>
@@ -9031,10 +9031,10 @@
         <v>0.1</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -9046,10 +9046,10 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K115">
         <v>0.2598425196850394</v>
@@ -9099,7 +9099,7 @@
         <v>9</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K116">
         <v>0.2592592592592592</v>
@@ -9149,7 +9149,7 @@
         <v>9</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K117">
         <v>0.2576977735670298</v>
@@ -9184,22 +9184,22 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>9</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K118">
         <v>0.2571428571428571</v>
@@ -9228,28 +9228,28 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K119">
         <v>0.2547169811320755</v>
@@ -9278,25 +9278,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E120">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>358</v>
@@ -9328,25 +9328,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E121">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F121">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>359</v>
@@ -9428,25 +9428,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.09090909090909091</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="E123">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F123">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>361</v>
@@ -9478,28 +9478,28 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.09090909090909091</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K124">
         <v>0.25</v>
@@ -9528,25 +9528,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.08571428571428572</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="E125">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>362</v>
@@ -9578,25 +9578,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.08433734939759036</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C126">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>307</v>
+        <v>1</v>
       </c>
       <c r="E126">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>363</v>
@@ -9699,7 +9699,7 @@
         <v>11</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K128">
         <v>0.2482871125611746</v>
@@ -9734,16 +9734,16 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
         <v>11</v>
@@ -9778,28 +9778,28 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.08333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K130">
         <v>0.2424242424242424</v>
@@ -9828,25 +9828,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D131">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E131">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>366</v>
@@ -9878,28 +9878,28 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.08</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E132">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="F132">
-        <v>0.5</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K132">
         <v>0.24</v>
@@ -9928,25 +9928,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D133">
         <v>3</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>367</v>
@@ -9978,28 +9978,28 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134">
         <v>3</v>
       </c>
       <c r="E134">
+        <v>0.67</v>
+      </c>
+      <c r="F134">
         <v>0.33</v>
       </c>
-      <c r="F134">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K134">
         <v>0.2366771159874608</v>
@@ -10049,7 +10049,7 @@
         <v>13</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K135">
         <v>0.2366412213740458</v>
@@ -10084,13 +10084,13 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="E136">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F136">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
@@ -10128,25 +10128,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E137">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F137">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>369</v>
@@ -10178,25 +10178,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="E138">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>370</v>
@@ -10228,28 +10228,28 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.06666666666666667</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D139">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E139">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F139">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K139">
         <v>0.2307692307692308</v>
@@ -10278,25 +10278,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>371</v>
@@ -10328,25 +10328,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.06521739130434782</v>
+        <v>0.0625</v>
       </c>
       <c r="C141">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>372</v>
@@ -10378,25 +10378,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D142">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E142">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>373</v>
@@ -10481,10 +10481,10 @@
         <v>0.0625</v>
       </c>
       <c r="C144">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -10496,7 +10496,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>375</v>
@@ -10578,25 +10578,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.0625</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>377</v>
@@ -10628,28 +10628,28 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K147">
         <v>0.2258064516129032</v>
@@ -10678,25 +10678,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.05970149253731343</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148" t="b">
+        <v>0</v>
+      </c>
+      <c r="H148">
         <v>34</v>
-      </c>
-      <c r="E148">
-        <v>0.88</v>
-      </c>
-      <c r="F148">
-        <v>0.12</v>
-      </c>
-      <c r="G148" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148">
-        <v>63</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>378</v>
@@ -10728,25 +10728,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>379</v>
@@ -10781,10 +10781,10 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -10796,7 +10796,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>380</v>
@@ -10834,16 +10834,16 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
         <v>17</v>
@@ -10878,25 +10878,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.05555555555555555</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>382</v>
@@ -10928,25 +10928,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.05555555555555555</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D153">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E153">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F153">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>383</v>
@@ -10978,25 +10978,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.0547945205479452</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C154">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>0.3100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>384</v>
@@ -11028,25 +11028,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C155">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E155">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F155">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>385</v>
@@ -11128,13 +11128,13 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E157">
         <v>0.93</v>
@@ -11146,10 +11146,10 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K157">
         <v>0.2183406113537118</v>
@@ -11178,25 +11178,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>387</v>
@@ -11228,25 +11228,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>388</v>
@@ -11278,25 +11278,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.05128205128205128</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D160">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="E160">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F160">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>389</v>
@@ -11328,28 +11328,28 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K161">
         <v>0.2142857142857143</v>
@@ -11378,25 +11378,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.04918032786885246</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C162">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E162">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F162">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>390</v>
@@ -11431,22 +11431,22 @@
         <v>0.04761904761904762</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E163">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F163">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>391</v>
@@ -11484,13 +11484,13 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E164">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F164">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
@@ -11499,7 +11499,7 @@
         <v>20</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K164">
         <v>0.2142857142857143</v>
@@ -11531,22 +11531,22 @@
         <v>0.04761904761904762</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165">
         <v>8</v>
       </c>
       <c r="E165">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F165">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>392</v>
@@ -11578,25 +11578,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.04761904761904762</v>
+        <v>0.04721030042918455</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D166">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="E166">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F166">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>393</v>
@@ -11628,28 +11628,28 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K167">
         <v>0.2133333333333333</v>
@@ -11678,28 +11678,28 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.04721030042918455</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C168">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K168">
         <v>0.2087912087912088</v>
@@ -11734,16 +11734,16 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
         <v>21</v>
@@ -11778,25 +11778,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>395</v>
@@ -11828,25 +11828,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.04545454545454546</v>
+        <v>0.044</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D171">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="E171">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F171">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>396</v>
@@ -11878,25 +11878,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C172">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E172">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F172">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>397</v>
@@ -11928,25 +11928,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.044</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C173">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="E173">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F173">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>398</v>
@@ -11984,16 +11984,16 @@
         <v>1</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
         <v>22</v>
@@ -12034,13 +12034,13 @@
         <v>1</v>
       </c>
       <c r="D175">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E175">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F175">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
@@ -12078,25 +12078,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.04347826086956522</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>401</v>
@@ -12128,25 +12128,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E177">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="F177">
-        <v>0.14</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>402</v>
@@ -12178,25 +12178,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.04210526315789474</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E178">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F178">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>403</v>
@@ -12228,25 +12228,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>404</v>
@@ -12278,25 +12278,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>405</v>
@@ -12328,25 +12328,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>406</v>
@@ -12378,28 +12378,28 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K182">
         <v>0.2</v>
@@ -12428,25 +12428,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E183">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F183">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>407</v>
@@ -12478,25 +12478,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="E184">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="F184">
-        <v>0.01000000000000001</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>408</v>
@@ -12534,13 +12534,13 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E185">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F185">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
@@ -12578,28 +12578,28 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.03703703703703703</v>
+        <v>0.03676470588235294</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D186">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="E186">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F186">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K186">
         <v>0.1988372093023256</v>
@@ -12628,25 +12628,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.03703703703703703</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D187">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E187">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="F187">
-        <v>0.33</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>409</v>
@@ -12678,25 +12678,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.03676470588235294</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="C188">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D188">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="E188">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F188">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>410</v>
@@ -12728,28 +12728,28 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.03658536585365853</v>
+        <v>0.03603603603603604</v>
       </c>
       <c r="C189">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D189">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E189">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F189">
-        <v>0.09999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K189">
         <v>0.1925925925925926</v>
@@ -12778,25 +12778,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.03614457831325301</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E190">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F190">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>411</v>
@@ -12828,25 +12828,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.03603603603603604</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C191">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>412</v>
@@ -12884,13 +12884,13 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E192">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F192">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
@@ -12899,7 +12899,7 @@
         <v>27</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K192">
         <v>0.1904761904761905</v>
@@ -12934,22 +12934,22 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
         <v>27</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K193">
         <v>0.1901840490797546</v>
@@ -12978,28 +12978,28 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E194">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F194">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K194">
         <v>0.188034188034188</v>
@@ -13028,25 +13028,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D195">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E195">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F195">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>413</v>
@@ -13081,22 +13081,22 @@
         <v>0.03448275862068965</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E196">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F196">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>414</v>
@@ -13128,13 +13128,13 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.03448275862068965</v>
+        <v>0.03308823529411765</v>
       </c>
       <c r="C197">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D197">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="E197">
         <v>0.9399999999999999</v>
@@ -13146,7 +13146,7 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>84</v>
+        <v>263</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>415</v>
@@ -13178,25 +13178,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E198">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F198">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>416</v>
@@ -13228,25 +13228,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.03308823529411765</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C199">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>153</v>
+        <v>4</v>
       </c>
       <c r="E199">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F199">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>263</v>
+        <v>30</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>417</v>
@@ -13284,16 +13284,16 @@
         <v>1</v>
       </c>
       <c r="D200">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E200">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
         <v>30</v>
@@ -13328,25 +13328,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E201">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F201">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>419</v>
@@ -13378,13 +13378,13 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.03225806451612903</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -13396,7 +13396,7 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>420</v>
@@ -13428,25 +13428,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.03125</v>
+        <v>0.02991452991452992</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E203">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F203">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>421</v>
@@ -13478,25 +13478,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.03012048192771084</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C204">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>422</v>
@@ -13528,28 +13528,28 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.02991452991452992</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
         <v>7</v>
       </c>
-      <c r="D205">
-        <v>100</v>
-      </c>
       <c r="E205">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F205">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>227</v>
+        <v>34</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K205">
         <v>0.1809523809523809</v>
@@ -13578,25 +13578,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02941176470588235</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E206">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F206">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>423</v>
@@ -13628,25 +13628,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E207">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>424</v>
@@ -13678,25 +13678,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E208">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F208">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>425</v>
@@ -13728,28 +13728,28 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K209">
         <v>0.1764705882352941</v>
@@ -13784,16 +13784,16 @@
         <v>1</v>
       </c>
       <c r="D210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E210">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
         <v>36</v>
@@ -13828,25 +13828,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E211">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F211">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>427</v>
@@ -13878,25 +13878,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02702702702702703</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="G212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>428</v>
@@ -13928,25 +13928,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.02631578947368421</v>
+        <v>0.025</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E213">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F213">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>429</v>
@@ -13978,25 +13978,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02542372881355932</v>
+        <v>0.025</v>
       </c>
       <c r="C214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E214">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="F214">
-        <v>0.13</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>430</v>
@@ -14028,25 +14028,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E215">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F215">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>431</v>
@@ -14078,25 +14078,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E216">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>432</v>
@@ -14128,25 +14128,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02439024390243903</v>
+        <v>0.02404809619238477</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D217">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="E217">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F217">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>40</v>
+        <v>487</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>433</v>
@@ -14178,7 +14178,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14196,7 +14196,7 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>434</v>
@@ -14228,25 +14228,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02404809619238477</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C219">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="E219">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219">
-        <v>487</v>
+        <v>42</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>435</v>
@@ -14278,25 +14278,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>436</v>
@@ -14328,25 +14328,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>437</v>
@@ -14378,25 +14378,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E222">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F222">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>438</v>
@@ -14428,25 +14428,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E223">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>439</v>
@@ -14478,25 +14478,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E224">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="F224">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>440</v>
@@ -14528,25 +14528,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.02222222222222222</v>
+        <v>0.02145214521452145</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
-        <v>44</v>
+        <v>593</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>441</v>
@@ -14578,25 +14578,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="E226">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F226">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>442</v>
@@ -14628,13 +14628,13 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.02145214521452145</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C227">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>301</v>
+        <v>26</v>
       </c>
       <c r="E227">
         <v>0.96</v>
@@ -14646,7 +14646,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>593</v>
+        <v>47</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>443</v>
@@ -14678,7 +14678,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>444</v>
@@ -14728,25 +14728,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E229">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F229">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>445</v>
@@ -14778,25 +14778,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E230">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F230">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>446</v>
@@ -14828,25 +14828,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.02040816326530612</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E231">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F231">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>447</v>
@@ -14878,25 +14878,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.02040816326530612</v>
+        <v>0.02001250781738587</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D232">
-        <v>15</v>
+        <v>576</v>
       </c>
       <c r="E232">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F232">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>48</v>
+        <v>1567</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>448</v>
@@ -14928,25 +14928,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0202020202020202</v>
+        <v>0.02</v>
       </c>
       <c r="C233">
         <v>2</v>
       </c>
       <c r="D233">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E233">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="F233">
-        <v>0.5</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>449</v>
@@ -14978,25 +14978,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.02001250781738587</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="C234">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D234">
-        <v>576</v>
+        <v>60</v>
       </c>
       <c r="E234">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F234">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>1567</v>
+        <v>99</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>450</v>
@@ -15028,25 +15028,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E235">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>451</v>
@@ -15078,25 +15078,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0198019801980198</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C236">
         <v>2</v>
       </c>
       <c r="D236">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E236">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F236">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>452</v>
@@ -15134,16 +15134,16 @@
         <v>1</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237">
         <v>50</v>
@@ -15178,25 +15178,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0196078431372549</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E238">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F238">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>454</v>
@@ -15228,25 +15228,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0196078431372549</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D239">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E239">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F239">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>455</v>
@@ -15284,13 +15284,13 @@
         <v>1</v>
       </c>
       <c r="D240">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E240">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F240">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
@@ -15328,25 +15328,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01851851851851852</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="C241">
         <v>2</v>
       </c>
       <c r="D241">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E241">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F241">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>457</v>
@@ -15378,25 +15378,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01851851851851852</v>
+        <v>0.01790281329923274</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D242">
-        <v>25</v>
+        <v>803</v>
       </c>
       <c r="E242">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F242">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>53</v>
+        <v>2304</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>458</v>
@@ -15428,25 +15428,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01801801801801802</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E243">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F243">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>459</v>
@@ -15478,25 +15478,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01790281329923274</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C244">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <v>803</v>
+        <v>11</v>
       </c>
       <c r="E244">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F244">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>2304</v>
+        <v>55</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>460</v>
@@ -15528,25 +15528,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01785714285714286</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E245">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>461</v>
@@ -15578,25 +15578,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.01785714285714286</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E246">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H246">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>462</v>
@@ -15678,25 +15678,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>464</v>
@@ -15728,25 +15728,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249">
-        <v>58</v>
+        <v>236</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>465</v>
@@ -15778,25 +15778,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01666666666666667</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E250">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F250">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>466</v>
@@ -15828,25 +15828,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.01666666666666667</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C251">
         <v>4</v>
       </c>
       <c r="D251">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="E251">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H251">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>467</v>
@@ -15878,25 +15878,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.01639344262295082</v>
+        <v>0.01567398119122257</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D252">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="E252">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F252">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>60</v>
+        <v>628</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>468</v>
@@ -15928,25 +15928,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.01587301587301587</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="C253">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D253">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>469</v>
@@ -15978,25 +15978,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01567398119122257</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C254">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>273</v>
+        <v>2</v>
       </c>
       <c r="E254">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F254">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>628</v>
+        <v>64</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>470</v>
@@ -16028,25 +16028,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0155440414507772</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
         <v>3</v>
       </c>
-      <c r="D255">
-        <v>47</v>
-      </c>
       <c r="E255">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F255">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>471</v>
@@ -16078,28 +16078,28 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01538461538461539</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E256">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F256">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K256">
         <v>0.1538461538461539</v>
@@ -16128,25 +16128,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.01470588235294118</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E257">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F257">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>472</v>
@@ -16178,25 +16178,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.01428571428571429</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E258">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F258">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>473</v>
@@ -16228,25 +16228,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.0136986301369863</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E259">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F259">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>474</v>
@@ -16278,25 +16278,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.0136986301369863</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E260">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F260">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>475</v>
@@ -16328,25 +16328,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.01333333333333333</v>
+        <v>0.0125</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="E261">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="F261">
-        <v>0.08999999999999997</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>476</v>
@@ -16378,13 +16378,13 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.01265822784810127</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D262">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E262">
         <v>0.75</v>
@@ -16396,7 +16396,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>477</v>
@@ -16428,28 +16428,28 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.0125</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E263">
-        <v>0.99</v>
+        <v>0.83</v>
       </c>
       <c r="F263">
-        <v>0.01000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K263">
         <v>0.1517857142857143</v>
@@ -16478,25 +16478,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.01212121212121212</v>
+        <v>0.01102941176470588</v>
       </c>
       <c r="C264">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D264">
-        <v>8</v>
+        <v>217</v>
       </c>
       <c r="E264">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="F264">
-        <v>0.25</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>478</v>
@@ -16528,25 +16528,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.01111111111111111</v>
+        <v>0.01072386058981233</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D265">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E265">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F265">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H265">
-        <v>89</v>
+        <v>369</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>479</v>
@@ -16578,28 +16578,28 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.01102941176470588</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="C266">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D266">
-        <v>217</v>
+        <v>4</v>
       </c>
       <c r="E266">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="F266">
-        <v>0.01000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>269</v>
+        <v>185</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K266">
         <v>0.15</v>
@@ -16628,25 +16628,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.01072386058981233</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="C267">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F267">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267">
-        <v>369</v>
+        <v>93</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>480</v>
@@ -16678,25 +16678,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.0106951871657754</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E268">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F268">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>481</v>
@@ -16728,25 +16728,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.01063829787234043</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E269">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F269">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>482</v>
@@ -16778,28 +16778,28 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.01052631578947368</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D270">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E270">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F270">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K270">
         <v>0.1481481481481481</v>
@@ -16828,25 +16828,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.01041666666666667</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E271">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F271">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>483</v>
@@ -16878,28 +16878,28 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.01020408163265306</v>
+        <v>0.01005747126436782</v>
       </c>
       <c r="C272">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D272">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="E272">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F272">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>194</v>
+        <v>689</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K272">
         <v>0.1481481481481481</v>
@@ -16928,25 +16928,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.0101010101010101</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E273">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="F273">
-        <v>0.09999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>484</v>
@@ -16978,28 +16978,28 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.01005747126436782</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C274">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D274">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="E274">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F274">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>689</v>
+        <v>107</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K274">
         <v>0.148014440433213</v>
@@ -17028,28 +17028,28 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.009615384615384616</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E275">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F275">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K275">
         <v>0.1463414634146341</v>
@@ -17078,28 +17078,28 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.009259259259259259</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D276">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E276">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F276">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>107</v>
+        <v>232</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K276">
         <v>0.1451612903225807</v>
@@ -17128,25 +17128,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.008771929824561403</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E277">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F277">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>485</v>
@@ -17178,28 +17178,28 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.008547008547008548</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="C278">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D278">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E278">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F278">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>232</v>
+        <v>131</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K278">
         <v>0.1428571428571428</v>
@@ -17228,25 +17228,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.007633587786259542</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E279">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F279">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>486</v>
@@ -17278,25 +17278,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.007575757575757576</v>
+        <v>0.007281553398058253</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D280">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="E280">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="F280">
-        <v>0.14</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>131</v>
+        <v>409</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>487</v>
@@ -17328,25 +17328,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.007518796992481203</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="C281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D281">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E281">
-        <v>0.97</v>
+        <v>0.6</v>
       </c>
       <c r="F281">
-        <v>0.03000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>132</v>
+        <v>288</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>488</v>
@@ -17378,13 +17378,13 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.007281553398058253</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="C282">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D282">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="E282">
         <v>0.98</v>
@@ -17396,7 +17396,7 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>409</v>
+        <v>179</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>489</v>
@@ -17428,25 +17428,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.006896551724137931</v>
+        <v>0.004835924006908463</v>
       </c>
       <c r="C283">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D283">
-        <v>5</v>
+        <v>320</v>
       </c>
       <c r="E283">
-        <v>0.6</v>
+        <v>0.96</v>
       </c>
       <c r="F283">
-        <v>0.4</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>288</v>
+        <v>2881</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>490</v>
@@ -17478,13 +17478,13 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.005555555555555556</v>
+        <v>0.003787878787878788</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
       <c r="D284">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E284">
         <v>0.98</v>
@@ -17496,7 +17496,7 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>179</v>
+        <v>263</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>491</v>
@@ -17528,25 +17528,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.004835924006908463</v>
+        <v>0.003773584905660377</v>
       </c>
       <c r="C285">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D285">
-        <v>320</v>
+        <v>17</v>
       </c>
       <c r="E285">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F285">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>2881</v>
+        <v>528</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>492</v>
@@ -17578,25 +17578,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.003787878787878788</v>
+        <v>0.003218884120171674</v>
       </c>
       <c r="C286">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D286">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E286">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F286">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>263</v>
+        <v>929</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>493</v>
@@ -17628,25 +17628,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.003773584905660377</v>
+        <v>0.002915451895043732</v>
       </c>
       <c r="C287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D287">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E287">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F287">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>528</v>
+        <v>342</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>494</v>
@@ -17678,25 +17678,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.003218884120171674</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="C288">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D288">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E288">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F288">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>929</v>
+        <v>1098</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>495</v>
@@ -17723,31 +17723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:17">
-      <c r="A289" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B289">
-        <v>0.002915451895043732</v>
-      </c>
-      <c r="C289">
-        <v>1</v>
-      </c>
-      <c r="D289">
-        <v>18</v>
-      </c>
-      <c r="E289">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F289">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G289" t="b">
-        <v>1</v>
-      </c>
-      <c r="H289">
-        <v>342</v>
-      </c>
+    <row r="289" spans="10:17">
       <c r="J289" s="1" t="s">
         <v>496</v>
       </c>
@@ -17773,31 +17749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="290" spans="1:17">
-      <c r="A290" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B290">
-        <v>0.001818181818181818</v>
-      </c>
-      <c r="C290">
-        <v>2</v>
-      </c>
-      <c r="D290">
-        <v>63</v>
-      </c>
-      <c r="E290">
-        <v>0.97</v>
-      </c>
-      <c r="F290">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G290" t="b">
-        <v>1</v>
-      </c>
-      <c r="H290">
-        <v>1098</v>
-      </c>
+    <row r="290" spans="10:17">
       <c r="J290" s="1" t="s">
         <v>497</v>
       </c>
@@ -17823,7 +17775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:17">
+    <row r="291" spans="10:17">
       <c r="J291" s="1" t="s">
         <v>498</v>
       </c>
@@ -17849,7 +17801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:17">
+    <row r="292" spans="10:17">
       <c r="J292" s="1" t="s">
         <v>499</v>
       </c>
@@ -17875,7 +17827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:17">
+    <row r="293" spans="10:17">
       <c r="J293" s="1" t="s">
         <v>500</v>
       </c>
@@ -17901,7 +17853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:17">
+    <row r="294" spans="10:17">
       <c r="J294" s="1" t="s">
         <v>501</v>
       </c>
@@ -17927,9 +17879,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:17">
+    <row r="295" spans="10:17">
       <c r="J295" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K295">
         <v>0.1428571428571428</v>
@@ -17953,7 +17905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:17">
+    <row r="296" spans="10:17">
       <c r="J296" s="1" t="s">
         <v>502</v>
       </c>
@@ -17979,7 +17931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:17">
+    <row r="297" spans="10:17">
       <c r="J297" s="1" t="s">
         <v>503</v>
       </c>
@@ -18005,7 +17957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:17">
+    <row r="298" spans="10:17">
       <c r="J298" s="1" t="s">
         <v>504</v>
       </c>
@@ -18031,7 +17983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:17">
+    <row r="299" spans="10:17">
       <c r="J299" s="1" t="s">
         <v>505</v>
       </c>
@@ -18057,7 +18009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:17">
+    <row r="300" spans="10:17">
       <c r="J300" s="1" t="s">
         <v>506</v>
       </c>
@@ -18083,7 +18035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:17">
+    <row r="301" spans="10:17">
       <c r="J301" s="1" t="s">
         <v>507</v>
       </c>
@@ -18109,7 +18061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:17">
+    <row r="302" spans="10:17">
       <c r="J302" s="1" t="s">
         <v>508</v>
       </c>
@@ -18135,7 +18087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:17">
+    <row r="303" spans="10:17">
       <c r="J303" s="1" t="s">
         <v>509</v>
       </c>
@@ -18161,7 +18113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:17">
+    <row r="304" spans="10:17">
       <c r="J304" s="1" t="s">
         <v>510</v>
       </c>
@@ -18267,7 +18219,7 @@
     </row>
     <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K308">
         <v>0.1377049180327869</v>
@@ -18657,7 +18609,7 @@
     </row>
     <row r="323" spans="10:17">
       <c r="J323" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K323">
         <v>0.1333333333333333</v>
@@ -18683,7 +18635,7 @@
     </row>
     <row r="324" spans="10:17">
       <c r="J324" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K324">
         <v>0.1333333333333333</v>
@@ -18761,7 +18713,7 @@
     </row>
     <row r="327" spans="10:17">
       <c r="J327" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K327">
         <v>0.1333333333333333</v>
@@ -18839,7 +18791,7 @@
     </row>
     <row r="330" spans="10:17">
       <c r="J330" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K330">
         <v>0.1304347826086956</v>
@@ -18891,7 +18843,7 @@
     </row>
     <row r="332" spans="10:17">
       <c r="J332" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K332">
         <v>0.1304347826086956</v>
@@ -18943,7 +18895,7 @@
     </row>
     <row r="334" spans="10:17">
       <c r="J334" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K334">
         <v>0.1300813008130081</v>
@@ -18969,7 +18921,7 @@
     </row>
     <row r="335" spans="10:17">
       <c r="J335" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K335">
         <v>0.1300448430493273</v>
@@ -20165,7 +20117,7 @@
     </row>
     <row r="381" spans="10:17">
       <c r="J381" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K381">
         <v>0.1219512195121951</v>
@@ -20321,7 +20273,7 @@
     </row>
     <row r="387" spans="10:17">
       <c r="J387" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K387">
         <v>0.12</v>
@@ -20425,7 +20377,7 @@
     </row>
     <row r="391" spans="10:17">
       <c r="J391" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K391">
         <v>0.119047619047619</v>
@@ -20815,7 +20767,7 @@
     </row>
     <row r="406" spans="10:17">
       <c r="J406" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K406">
         <v>0.1171875</v>
@@ -20893,7 +20845,7 @@
     </row>
     <row r="409" spans="10:17">
       <c r="J409" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K409">
         <v>0.1153846153846154</v>
@@ -20945,7 +20897,7 @@
     </row>
     <row r="411" spans="10:17">
       <c r="J411" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K411">
         <v>0.1153846153846154</v>
@@ -21075,7 +21027,7 @@
     </row>
     <row r="416" spans="10:17">
       <c r="J416" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K416">
         <v>0.1136363636363636</v>
@@ -21101,7 +21053,7 @@
     </row>
     <row r="417" spans="10:17">
       <c r="J417" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K417">
         <v>0.1129032258064516</v>
@@ -21465,7 +21417,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K431">
         <v>0.1111111111111111</v>
@@ -21647,7 +21599,7 @@
     </row>
     <row r="438" spans="10:17">
       <c r="J438" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K438">
         <v>0.1111111111111111</v>
@@ -22921,7 +22873,7 @@
     </row>
     <row r="487" spans="10:17">
       <c r="J487" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K487">
         <v>0.09601506118606841</v>
@@ -23363,7 +23315,7 @@
     </row>
     <row r="504" spans="10:17">
       <c r="J504" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K504">
         <v>0.09090909090909091</v>
@@ -23467,7 +23419,7 @@
     </row>
     <row r="508" spans="10:17">
       <c r="J508" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K508">
         <v>0.09090909090909091</v>
@@ -24377,7 +24329,7 @@
     </row>
     <row r="543" spans="10:17">
       <c r="J543" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K543">
         <v>0.08411214953271028</v>
@@ -24975,7 +24927,7 @@
     </row>
     <row r="566" spans="10:17">
       <c r="J566" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K566">
         <v>0.08</v>
@@ -25079,7 +25031,7 @@
     </row>
     <row r="570" spans="10:17">
       <c r="J570" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K570">
         <v>0.07692307692307693</v>
@@ -25833,7 +25785,7 @@
     </row>
     <row r="599" spans="10:17">
       <c r="J599" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K599">
         <v>0.07142857142857142</v>
@@ -26587,7 +26539,7 @@
     </row>
     <row r="628" spans="10:17">
       <c r="J628" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K628">
         <v>0.06666666666666667</v>
@@ -27055,7 +27007,7 @@
     </row>
     <row r="646" spans="10:17">
       <c r="J646" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K646">
         <v>0.0625</v>
@@ -27315,7 +27267,7 @@
     </row>
     <row r="656" spans="10:17">
       <c r="J656" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K656">
         <v>0.06060606060606061</v>
@@ -28017,7 +27969,7 @@
     </row>
     <row r="683" spans="10:17">
       <c r="J683" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K683">
         <v>0.05319148936170213</v>
@@ -28069,7 +28021,7 @@
     </row>
     <row r="685" spans="10:17">
       <c r="J685" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K685">
         <v>0.05263157894736842</v>
@@ -28095,7 +28047,7 @@
     </row>
     <row r="686" spans="10:17">
       <c r="J686" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K686">
         <v>0.05263157894736842</v>
@@ -28433,7 +28385,7 @@
     </row>
     <row r="699" spans="10:17">
       <c r="J699" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K699">
         <v>0.05128205128205128</v>
@@ -28459,7 +28411,7 @@
     </row>
     <row r="700" spans="10:17">
       <c r="J700" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K700">
         <v>0.05109489051094891</v>
@@ -28823,7 +28775,7 @@
     </row>
     <row r="714" spans="10:17">
       <c r="J714" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K714">
         <v>0.04735376044568245</v>
@@ -29083,7 +29035,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K724">
         <v>0.04379562043795621</v>
@@ -29109,7 +29061,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K725">
         <v>0.04347826086956522</v>
@@ -29265,7 +29217,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K731">
         <v>0.04166666666666666</v>
@@ -29473,7 +29425,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K739">
         <v>0.04081632653061224</v>
@@ -29603,7 +29555,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K744">
         <v>0.04</v>
@@ -29629,7 +29581,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K745">
         <v>0.04</v>
@@ -29759,7 +29711,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K750">
         <v>0.03730569948186528</v>
@@ -29837,7 +29789,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K753">
         <v>0.03703703703703703</v>
@@ -29863,7 +29815,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K754">
         <v>0.03703703703703703</v>
@@ -30097,7 +30049,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K763">
         <v>0.03571428571428571</v>
@@ -30123,7 +30075,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K764">
         <v>0.03550295857988166</v>
@@ -30617,7 +30569,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K783">
         <v>0.03125</v>
@@ -30799,7 +30751,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K790">
         <v>0.02898550724637681</v>
@@ -30877,7 +30829,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K793">
         <v>0.02762430939226519</v>
@@ -31501,7 +31453,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K817">
         <v>0.02272727272727273</v>
@@ -31631,7 +31583,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K822">
         <v>0.02272727272727273</v>
@@ -31709,7 +31661,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K825">
         <v>0.0202020202020202</v>
@@ -31761,7 +31713,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K827">
         <v>0.01904761904761905</v>
@@ -31891,7 +31843,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K832">
         <v>0.01538461538461539</v>
@@ -32177,7 +32129,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K843">
         <v>0.0106951871657754</v>
@@ -32203,7 +32155,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K844">
         <v>0.01030927835051546</v>
@@ -32229,7 +32181,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K845">
         <v>0.0101010101010101</v>
@@ -32281,7 +32233,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K847">
         <v>0.008547008547008548</v>
